--- a/data/readiness.xlsx
+++ b/data/readiness.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29728"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29808"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EA52DD5-562B-482A-9E28-A55CA50F1790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DDA3B4E-398F-4631-83C8-E012E79BA537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="z" sheetId="1" r:id="rId1"/>
-    <sheet name="x" sheetId="2" r:id="rId2"/>
+    <sheet name="Overall" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -32,11 +32,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+  <si>
+    <t>Unit</t>
+  </si>
   <si>
     <t>Value</t>
   </si>
   <si>
+    <t>1 SIR</t>
+  </si>
+  <si>
+    <t>2 SIR</t>
+  </si>
+  <si>
+    <t>3 SIR</t>
+  </si>
+  <si>
+    <t>5 SIR</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -61,19 +76,16 @@
     <t>Equipment</t>
   </si>
   <si>
-    <t>STABLE</t>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>Logistics</t>
+  </si>
+  <si>
+    <t>DECLINING</t>
   </si>
   <si>
     <t>#c33</t>
-  </si>
-  <si>
-    <t>Training</t>
-  </si>
-  <si>
-    <t>Logistics</t>
-  </si>
-  <si>
-    <t>DECLINING</t>
   </si>
   <si>
     <t>Reporting</t>
@@ -431,22 +443,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
         <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -458,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F2152DB-7C82-4A33-A19E-820C6DA53BDC}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="A8:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -470,100 +512,100 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B7">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data/readiness.xlsx
+++ b/data/readiness.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29808"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DDA3B4E-398F-4631-83C8-E012E79BA537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB0F3641-927A-47C8-ADA0-062F089E706B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="21">
   <si>
     <t>Unit</t>
   </si>
@@ -52,6 +52,9 @@
     <t>5 SIR</t>
   </si>
   <si>
+    <t>unit</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -76,16 +79,16 @@
     <t>Equipment</t>
   </si>
   <si>
+    <t>DECLINING</t>
+  </si>
+  <si>
+    <t>#c33</t>
+  </si>
+  <si>
     <t>Training</t>
   </si>
   <si>
     <t>Logistics</t>
-  </si>
-  <si>
-    <t>DECLINING</t>
-  </si>
-  <si>
-    <t>#c33</t>
   </si>
   <si>
     <t>Reporting</t>
@@ -498,19 +501,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F2152DB-7C82-4A33-A19E-820C6DA53BDC}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="A8:D25"/>
+      <selection activeCell="D25" sqref="D25:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -523,89 +526,416 @@
       <c r="D1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>68</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>67</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>80</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
         <v>75</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16">
+        <v>80</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17">
+        <v>67</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18">
+        <v>52</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>35</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
+      <c r="C20">
+        <v>52</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21">
         <v>68</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4">
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22">
         <v>80</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23">
+        <v>53</v>
+      </c>
+      <c r="D23" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
-        <v>67</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E23" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6">
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24">
         <v>50</v>
       </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25">
+        <v>31</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/data/readiness.xlsx
+++ b/data/readiness.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29808"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB0F3641-927A-47C8-ADA0-062F089E706B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD7C276B-EE63-4225-9560-5C7F25FF0C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="20">
   <si>
     <t>Unit</t>
   </si>
@@ -40,16 +40,13 @@
     <t>Value</t>
   </si>
   <si>
-    <t>1 SIR</t>
-  </si>
-  <si>
-    <t>2 SIR</t>
-  </si>
-  <si>
-    <t>3 SIR</t>
-  </si>
-  <si>
-    <t>5 SIR</t>
+    <t>3 SIB</t>
+  </si>
+  <si>
+    <t>5 SIB</t>
+  </si>
+  <si>
+    <t>24 SIB</t>
   </si>
   <si>
     <t>unit</t>
@@ -446,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -467,7 +464,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -483,14 +480,6 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
         <v>80</v>
       </c>
     </row>
@@ -501,10 +490,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F2152DB-7C82-4A33-A19E-820C6DA53BDC}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -515,19 +504,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -535,16 +524,16 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -552,16 +541,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>68</v>
       </c>
       <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
         <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -569,16 +558,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -586,16 +575,16 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>67</v>
       </c>
       <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
         <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -603,16 +592,16 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -620,16 +609,16 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -637,16 +626,16 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>23</v>
       </c>
       <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
         <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -654,16 +643,16 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -671,16 +660,16 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -688,16 +677,16 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11">
         <v>23</v>
       </c>
       <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
         <v>15</v>
-      </c>
-      <c r="E11" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -705,16 +694,16 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12">
         <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -722,16 +711,16 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13">
         <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -739,16 +728,16 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <v>75</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -756,16 +745,16 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15">
         <v>21</v>
       </c>
       <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
         <v>15</v>
-      </c>
-      <c r="E15" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -773,16 +762,16 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16">
         <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -790,16 +779,16 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17">
         <v>67</v>
       </c>
       <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
         <v>15</v>
-      </c>
-      <c r="E17" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -807,16 +796,16 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18">
         <v>52</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -824,118 +813,16 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19">
         <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20">
-        <v>52</v>
-      </c>
-      <c r="D20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21">
-        <v>68</v>
-      </c>
-      <c r="D21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22">
-        <v>80</v>
-      </c>
-      <c r="D22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23">
-        <v>53</v>
-      </c>
-      <c r="D23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24">
-        <v>50</v>
-      </c>
-      <c r="D24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25">
-        <v>31</v>
-      </c>
-      <c r="D25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data/readiness.xlsx
+++ b/data/readiness.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29728"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD7C276B-EE63-4225-9560-5C7F25FF0C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F94058D2-B119-411D-A07D-5D90925D774F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,12 +32,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="20">
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>Value</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="19">
+  <si>
+    <t>brigade</t>
+  </si>
+  <si>
+    <t>value</t>
   </si>
   <si>
     <t>3 SIB</t>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>24 SIB</t>
-  </si>
-  <si>
-    <t>unit</t>
   </si>
   <si>
     <t>name</t>
@@ -446,7 +443,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -493,7 +490,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -504,19 +501,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -524,16 +521,16 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -541,16 +538,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>68</v>
       </c>
       <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -558,16 +555,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -575,16 +572,16 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>67</v>
       </c>
       <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
         <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -592,16 +589,16 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -609,16 +606,16 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -626,16 +623,16 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>23</v>
       </c>
       <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
         <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -643,16 +640,16 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -660,16 +657,16 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -677,16 +674,16 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>23</v>
       </c>
       <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
         <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -694,16 +691,16 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12">
         <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -711,16 +708,16 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13">
         <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -728,16 +725,16 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14">
         <v>75</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -745,16 +742,16 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15">
         <v>21</v>
       </c>
       <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
         <v>14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -762,16 +759,16 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -779,16 +776,16 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17">
         <v>67</v>
       </c>
       <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
         <v>14</v>
-      </c>
-      <c r="E17" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -796,16 +793,16 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18">
         <v>52</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -813,16 +810,16 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19">
         <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
